--- a/Library3/Книга.xlsx
+++ b/Library3/Книга.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Детектив" sheetId="1" r:id="rId1"/>
-    <sheet name="Роман" sheetId="2" r:id="rId2"/>
+    <sheet name="Поезія" sheetId="3" r:id="rId2"/>
+    <sheet name="Роман" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Джерело</t>
   </si>
@@ -37,6 +38,45 @@
   </si>
   <si>
     <t>Код да Вінчі</t>
+  </si>
+  <si>
+    <t>Назва</t>
+  </si>
+  <si>
+    <t>Мова</t>
+  </si>
+  <si>
+    <t>К-ть сторінок</t>
+  </si>
+  <si>
+    <t>Автор(и)</t>
+  </si>
+  <si>
+    <t>Ангели і Демони</t>
+  </si>
+  <si>
+    <t>Інферно</t>
+  </si>
+  <si>
+    <t>Зов кукушки</t>
+  </si>
+  <si>
+    <t>Російська</t>
+  </si>
+  <si>
+    <t>Роберт Гелбрейт</t>
+  </si>
+  <si>
+    <t>ааа</t>
+  </si>
+  <si>
+    <t>Шевченко</t>
+  </si>
+  <si>
+    <t>Леся Українка</t>
+  </si>
+  <si>
+    <t>Іван Франко</t>
   </si>
 </sst>
 </file>
@@ -355,19 +395,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
@@ -394,6 +449,48 @@
       </c>
       <c r="D3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>573</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>508</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -403,15 +500,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>520</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
